--- a/Dashboard dataset.xlsx
+++ b/Dashboard dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b38f71f3042d6721/MM_CareerChange/Companies Applied McHugh/BoE/assessment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\326375\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{4930038C-1389-4486-8148-B6ABC37D6DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B61E9F08-9DAE-4B87-A347-722822BFA882}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4930038C-1389-4486-8148-B6ABC37D6DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="307">
   <si>
     <t>Time period and dataset code row</t>
   </si>
@@ -955,24 +955,16 @@
   </si>
   <si>
     <t>OTH2</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,13 +1004,6 @@
       <name val="System"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1037,12 +1022,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1055,12 +1039,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{06E5CBCD-0696-4CFA-9E26-D50266C196D0}"/>
   </cellStyles>
@@ -1095,10 +1075,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1419,20 +1395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L301"/>
+  <dimension ref="A1:H282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B286" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E291" sqref="E291"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="8" width="17.5703125" customWidth="1"/>
+    <col min="1" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -8418,7 +8392,7 @@
         <v>546579</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>270</v>
       </c>
@@ -8444,7 +8418,7 @@
         <v>555956</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>271</v>
       </c>
@@ -8470,7 +8444,7 @@
         <v>564407</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>272</v>
       </c>
@@ -8496,7 +8470,7 @@
         <v>567396</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>273</v>
       </c>
@@ -8522,7 +8496,7 @@
         <v>567889</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>274</v>
       </c>
@@ -8548,7 +8522,7 @@
         <v>567445</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>275</v>
       </c>
@@ -8574,7 +8548,7 @@
         <v>568034</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>276</v>
       </c>
@@ -8600,7 +8574,7 @@
         <v>569027</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>277</v>
       </c>
@@ -8626,7 +8600,7 @@
         <v>569076</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>278</v>
       </c>
@@ -8652,202 +8626,33 @@
         <v>568397</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B282" s="6">
+      <c r="B282" s="2">
         <v>336957</v>
       </c>
-      <c r="C282" s="6">
+      <c r="C282" s="2">
         <v>117343</v>
       </c>
-      <c r="D282" s="6">
+      <c r="D282" s="2">
         <v>107170</v>
       </c>
-      <c r="E282" s="6">
+      <c r="E282" s="2">
         <v>-449</v>
       </c>
-      <c r="F282" s="6">
+      <c r="F282" s="2">
         <v>-7718</v>
       </c>
-      <c r="G282" s="6">
+      <c r="G282" s="2">
         <v>13323</v>
       </c>
       <c r="H282" s="2">
         <v>566626</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="B286" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E286" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F286" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G286" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H286" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="I286" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="J286" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="K286" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="L286" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B287" s="2">
-        <v>28681</v>
-      </c>
-      <c r="C287" s="2">
-        <v>29564</v>
-      </c>
-      <c r="D287" s="2">
-        <v>68984</v>
-      </c>
-      <c r="E287" s="2">
-        <v>203567</v>
-      </c>
-      <c r="F287" s="2">
-        <v>6161</v>
-      </c>
-      <c r="G287" s="6">
-        <v>336957</v>
-      </c>
-      <c r="H287" s="6">
-        <v>117343</v>
-      </c>
-      <c r="I287" s="6">
-        <v>107170</v>
-      </c>
-      <c r="J287" s="6">
-        <v>-449</v>
-      </c>
-      <c r="K287" s="6">
-        <v>-7718</v>
-      </c>
-      <c r="L287" s="6">
-        <v>13323</v>
-      </c>
-    </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D290" t="s">
-        <v>307</v>
-      </c>
-      <c r="E290" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D291" t="s">
-        <v>282</v>
-      </c>
-      <c r="E291">
-        <v>336957</v>
-      </c>
-    </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D292" t="s">
-        <v>305</v>
-      </c>
-      <c r="E292">
-        <v>203567</v>
-      </c>
-    </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D293" t="s">
-        <v>283</v>
-      </c>
-      <c r="E293">
-        <v>117343</v>
-      </c>
-    </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D294" t="s">
-        <v>284</v>
-      </c>
-      <c r="E294">
-        <v>107170</v>
-      </c>
-    </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D295" t="s">
-        <v>304</v>
-      </c>
-      <c r="E295">
-        <v>68984</v>
-      </c>
-    </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D296" t="s">
-        <v>303</v>
-      </c>
-      <c r="E296">
-        <v>29564</v>
-      </c>
-    </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D297" t="s">
-        <v>302</v>
-      </c>
-      <c r="E297">
-        <v>28681</v>
-      </c>
-    </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D298" t="s">
-        <v>296</v>
-      </c>
-      <c r="E298">
-        <v>13323</v>
-      </c>
-    </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D299" t="s">
-        <v>296</v>
-      </c>
-      <c r="E299">
-        <v>6161</v>
-      </c>
-    </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D300" t="s">
-        <v>297</v>
-      </c>
-      <c r="E300">
-        <v>-449</v>
-      </c>
-    </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D301" t="s">
-        <v>298</v>
-      </c>
-      <c r="E301">
-        <v>-7718</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D291:E301">
-    <sortCondition descending="1" ref="E291:E301"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -8860,10 +8665,10 @@
   <dimension ref="A1:G282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B282" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="1" sqref="C282:G282 C5:G5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15290,12 +15095,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="96a98433-1569-4222-be80-afd48d89a184" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SectionName xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">Datasets</SectionName>
+    <Comments xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
+    <ReferenceId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">5424</ReferenceId>
+    <Notes xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
+    <TrackerId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">TRCK-2173</TrackerId>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15562,25 +15374,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="96a98433-1569-4222-be80-afd48d89a184" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SectionName xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">Datasets</SectionName>
-    <Comments xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
-    <ReferenceId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">5424</ReferenceId>
-    <Notes xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
-    <TrackerId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">TRCK-2173</TrackerId>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5A09F91-60C0-4F54-B42E-9DA65992951F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D099F3C5-96CE-48B4-99D8-011097DAE0A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1e572c8d-6813-4013-8a4a-be491ac59459"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="96a98433-1569-4222-be80-afd48d89a184"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15605,18 +15419,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D099F3C5-96CE-48B4-99D8-011097DAE0A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5A09F91-60C0-4F54-B42E-9DA65992951F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1e572c8d-6813-4013-8a4a-be491ac59459"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="96a98433-1569-4222-be80-afd48d89a184"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>